--- a/issue tracking-2018-3-21.xlsx
+++ b/issue tracking-2018-3-21.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" activeTab="4"/>
+    <workbookView windowWidth="24180" windowHeight="13050" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2018-3-15-1" sheetId="1" r:id="rId1"/>
@@ -2077,7 +2077,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -2254,7 +2254,7 @@
         <v>43180</v>
       </c>
     </row>
-    <row r="9" ht="28.5" spans="1:5">
+    <row r="9" ht="28.5" spans="1:6">
       <c r="A9">
         <v>35</v>
       </c>
@@ -2265,13 +2265,16 @@
         <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E9" s="4">
         <v>43177</v>
       </c>
-    </row>
-    <row r="10" ht="28.5" spans="1:5">
+      <c r="F9" s="4">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" spans="1:7">
       <c r="A10">
         <v>36</v>
       </c>
@@ -2286,6 +2289,9 @@
       </c>
       <c r="E10" s="4">
         <v>43177</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2319,8 +2325,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -2448,7 +2454,7 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
